--- a/bossinfo.xlsx
+++ b/bossinfo.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yusuke\Desktop\Game\bot\ボス管理\lmboss_bot\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yusuke\Desktop\Game\bot\ボス管理\lmbossbot_4discord-test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0AFCFC4E-5E3D-417D-AD00-8E86624C7C89}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13CCD616-0E71-4BB3-8FAE-7014211DA164}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{11F0D4BC-95E7-4B48-9CE8-51020CC6A3DD}"/>
+    <workbookView xWindow="165" yWindow="1110" windowWidth="21600" windowHeight="12465" activeTab="1" xr2:uid="{11F0D4BC-95E7-4B48-9CE8-51020CC6A3DD}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -43,18 +43,12 @@
     <t>四賢者</t>
   </si>
   <si>
-    <t>72の上に行ったところ</t>
-  </si>
-  <si>
     <t>スピリッド</t>
   </si>
   <si>
     <t>3h</t>
   </si>
   <si>
-    <t>12と55の間</t>
-  </si>
-  <si>
     <t>リカント</t>
   </si>
   <si>
@@ -73,15 +67,9 @@
     <t>4h</t>
   </si>
   <si>
-    <t>61の上、69の下辺り</t>
-  </si>
-  <si>
     <t>ドッペルゲンガーボス</t>
   </si>
   <si>
-    <t>23ハイネの右上、64鏡の森の右下辺り</t>
-  </si>
-  <si>
     <t>ダークハイエルダー</t>
   </si>
   <si>
@@ -97,48 +85,27 @@
     <t>ドレイク中央</t>
   </si>
   <si>
-    <t>49DV中央</t>
-  </si>
-  <si>
     <t>ドレイク北</t>
   </si>
   <si>
     <t>2h</t>
   </si>
   <si>
-    <t>50DV北</t>
-  </si>
-  <si>
     <t>ドレイク東</t>
   </si>
   <si>
-    <t>51DV東</t>
-  </si>
-  <si>
     <t>ドレイク西</t>
   </si>
   <si>
-    <t>52DV西</t>
-  </si>
-  <si>
     <t>山賊の親分</t>
   </si>
   <si>
-    <t>36山賊の巣窟</t>
-  </si>
-  <si>
     <t>疾風の巨大ドレイク</t>
   </si>
   <si>
-    <t>53竜の渓谷三又路</t>
-  </si>
-  <si>
     <t>憤怒の真イフリート</t>
   </si>
   <si>
-    <t>48火山頂上、ダイヤ飛び可能</t>
-  </si>
-  <si>
     <t>狂風のシャスキー(緑)</t>
   </si>
   <si>
@@ -154,13 +121,7 @@
     <t>古代巨人</t>
   </si>
   <si>
-    <t>74黄昏の山脈奥</t>
-  </si>
-  <si>
     <t>冷酷な大足のマーヨ</t>
-  </si>
-  <si>
-    <t>66雪壁</t>
   </si>
   <si>
     <t>火炎のフェニックス</t>
@@ -302,6 +263,58 @@
   </si>
   <si>
     <t>1h(r)</t>
+  </si>
+  <si>
+    <t>74の上に行ったところ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>12と57の間</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>63の上、71の下辺り</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>23ハイネの右上、66鏡の森の右下辺り</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>51DV中央</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>52DV北</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>53DV東</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>54DV西</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>37山賊の巣窟</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>55竜の渓谷三又路</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>76黄昏の山脈奥</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>68雪壁</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>49火山頂上、ダイヤ飛び可能</t>
+    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
@@ -383,6 +396,7 @@
         <charset val="128"/>
         <scheme val="none"/>
       </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -413,7 +427,6 @@
         <charset val="128"/>
         <scheme val="none"/>
       </font>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -462,23 +475,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>266700</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>257175</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>219075</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>676275</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="図 1">
+        <xdr:cNvPr id="4" name="図 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{02731819-2596-4E24-A8C7-C6CB7D5AB6C4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0A5613E-D76D-42B0-B2CC-14C18192A2BD}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -501,7 +514,7 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="3009900" y="3219450"/>
+          <a:off x="1371600" y="476250"/>
           <a:ext cx="6162675" cy="6524625"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -525,16 +538,16 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{92E6985A-3403-4A0C-8082-6EDF4E263775}" name="テーブル2" displayName="テーブル2" ref="B3:D40" totalsRowShown="0" headerRowDxfId="1" dataDxfId="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{92E6985A-3403-4A0C-8082-6EDF4E263775}" name="テーブル2" displayName="テーブル2" ref="B3:D40" totalsRowShown="0" headerRowDxfId="4" dataDxfId="3">
   <autoFilter ref="B3:D40" xr:uid="{07381EF2-8942-452E-8374-C1B98870814C}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{C6E55205-9692-4C0C-BE7D-C642D1BC83D2}" name="ボス名" dataDxfId="4"/>
-    <tableColumn id="2" xr3:uid="{41E07E7F-7D4C-4A15-BACF-170FE55EF147}" name="周期" dataDxfId="3"/>
-    <tableColumn id="3" xr3:uid="{72A188C6-97A9-436D-BF42-F35B7771B1EC}" name="POP場所" dataDxfId="2"/>
+    <tableColumn id="1" xr3:uid="{C6E55205-9692-4C0C-BE7D-C642D1BC83D2}" name="ボス名" dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{41E07E7F-7D4C-4A15-BACF-170FE55EF147}" name="周期" dataDxfId="1"/>
+    <tableColumn id="3" xr3:uid="{72A188C6-97A9-436D-BF42-F35B7771B1EC}" name="POP場所" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -839,8 +852,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5EBE913D-48DB-461B-BB8B-C857C10F25E1}">
   <dimension ref="B3:D40"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="G33" sqref="G33"/>
+    <sheetView showGridLines="0" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3:D40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.4"/>
@@ -854,13 +867,13 @@
   <sheetData>
     <row r="3" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B3" s="1" t="s">
-        <v>78</v>
+        <v>65</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>76</v>
+        <v>63</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>77</v>
+        <v>64</v>
       </c>
     </row>
     <row r="4" spans="2:4" x14ac:dyDescent="0.4">
@@ -868,7 +881,7 @@
         <v>0</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>79</v>
+        <v>66</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>1</v>
@@ -879,7 +892,7 @@
         <v>2</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>80</v>
+        <v>67</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>3</v>
@@ -890,384 +903,384 @@
         <v>4</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>81</v>
+        <v>68</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>5</v>
+        <v>75</v>
       </c>
     </row>
     <row r="7" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B7" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="1" t="s">
-        <v>7</v>
-      </c>
       <c r="D7" s="2" t="s">
-        <v>8</v>
+        <v>76</v>
       </c>
     </row>
     <row r="8" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B8" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>82</v>
+        <v>69</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="9" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B9" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>83</v>
+        <v>70</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B10" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>15</v>
+        <v>77</v>
       </c>
     </row>
     <row r="11" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B11" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>84</v>
+        <v>71</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>17</v>
+        <v>78</v>
       </c>
     </row>
     <row r="12" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B12" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="13" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B13" s="1" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="14" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B14" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>23</v>
+        <v>79</v>
       </c>
     </row>
     <row r="15" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B15" s="1" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>26</v>
+        <v>80</v>
       </c>
     </row>
     <row r="16" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B16" s="1" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>28</v>
+        <v>81</v>
       </c>
     </row>
     <row r="17" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B17" s="1" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>30</v>
+        <v>82</v>
       </c>
     </row>
     <row r="18" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B18" s="1" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>32</v>
+        <v>83</v>
       </c>
     </row>
     <row r="19" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B19" s="1" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>80</v>
+        <v>67</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>34</v>
+        <v>84</v>
       </c>
     </row>
     <row r="20" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B20" s="1" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>81</v>
+        <v>68</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>36</v>
+        <v>87</v>
       </c>
     </row>
     <row r="21" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B21" s="1" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>81</v>
+        <v>68</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
     </row>
     <row r="22" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B22" s="1" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>81</v>
+        <v>68</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
     </row>
     <row r="23" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B23" s="1" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="C23" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="D23" s="2" t="s">
         <v>85</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="24" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B24" s="1" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>80</v>
+        <v>67</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>44</v>
+        <v>86</v>
       </c>
     </row>
     <row r="25" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B25" s="1" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>83</v>
+        <v>70</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>36</v>
+        <v>87</v>
       </c>
     </row>
     <row r="26" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B26" s="1" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>47</v>
+        <v>34</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>48</v>
+        <v>35</v>
       </c>
     </row>
     <row r="27" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B27" s="1" t="s">
-        <v>49</v>
+        <v>36</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>47</v>
+        <v>34</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>48</v>
+        <v>35</v>
       </c>
     </row>
     <row r="28" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B28" s="1" t="s">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>86</v>
+        <v>73</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
     </row>
     <row r="29" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B29" s="1" t="s">
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>81</v>
+        <v>68</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>53</v>
+        <v>40</v>
       </c>
     </row>
     <row r="30" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B30" s="1" t="s">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>81</v>
+        <v>68</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
     </row>
     <row r="31" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B31" s="1" t="s">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>87</v>
+        <v>74</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>57</v>
+        <v>44</v>
       </c>
     </row>
     <row r="32" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B32" s="1" t="s">
-        <v>58</v>
+        <v>45</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>86</v>
+        <v>73</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>59</v>
+        <v>46</v>
       </c>
     </row>
     <row r="33" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B33" s="1" t="s">
-        <v>60</v>
+        <v>47</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>86</v>
+        <v>73</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>61</v>
+        <v>48</v>
       </c>
     </row>
     <row r="34" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B34" s="1" t="s">
-        <v>62</v>
+        <v>49</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>86</v>
+        <v>73</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>63</v>
+        <v>50</v>
       </c>
     </row>
     <row r="35" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B35" s="1" t="s">
-        <v>64</v>
+        <v>51</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>86</v>
+        <v>73</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>65</v>
+        <v>52</v>
       </c>
     </row>
     <row r="36" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B36" s="1" t="s">
-        <v>66</v>
+        <v>53</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>86</v>
+        <v>73</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>67</v>
+        <v>54</v>
       </c>
     </row>
     <row r="37" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B37" s="1" t="s">
-        <v>68</v>
+        <v>55</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>86</v>
+        <v>73</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>69</v>
+        <v>56</v>
       </c>
     </row>
     <row r="38" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B38" s="1" t="s">
-        <v>70</v>
+        <v>57</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>86</v>
+        <v>73</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>71</v>
+        <v>58</v>
       </c>
     </row>
     <row r="39" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B39" s="1" t="s">
-        <v>72</v>
+        <v>59</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>86</v>
+        <v>73</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>73</v>
+        <v>60</v>
       </c>
     </row>
     <row r="40" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B40" s="1" t="s">
-        <v>74</v>
+        <v>61</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>86</v>
+        <v>73</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>75</v>
+        <v>62</v>
       </c>
     </row>
   </sheetData>
@@ -1284,9 +1297,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A91D1E52-F4BF-492F-8043-F3A0E538A5BA}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData/>

--- a/bossinfo.xlsx
+++ b/bossinfo.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yusuke\Desktop\Game\bot\ボス管理\lmbossbot_4discord-test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13CCD616-0E71-4BB3-8FAE-7014211DA164}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{995BA6B9-7E88-446D-952A-F70A4BC8C033}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="165" yWindow="1110" windowWidth="21600" windowHeight="12465" activeTab="1" xr2:uid="{11F0D4BC-95E7-4B48-9CE8-51020CC6A3DD}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="93">
   <si>
     <t>カーツ</t>
   </si>
@@ -92,9 +92,6 @@
   </si>
   <si>
     <t>ドレイク東</t>
-  </si>
-  <si>
-    <t>ドレイク西</t>
   </si>
   <si>
     <t>山賊の親分</t>
@@ -314,6 +311,45 @@
   </si>
   <si>
     <t>49火山頂上、ダイヤ飛び可能</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ドレイク西上</t>
+    <rPh sb="4" eb="5">
+      <t>ニシ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ウエ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2h</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>54DV西→↑沸き場</t>
+    <rPh sb="7" eb="8">
+      <t>ワ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>バ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ドレイク西下</t>
+    <rPh sb="5" eb="6">
+      <t>シタ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>10Fリーパー</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>傲慢10階</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -477,21 +513,21 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>2</xdr:row>
+      <xdr:row>1</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>676275</xdr:colOff>
       <xdr:row>29</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:rowOff>200025</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="図 3">
+        <xdr:cNvPr id="5" name="図 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0A5613E-D76D-42B0-B2CC-14C18192A2BD}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FEC16B46-A425-41C9-86C9-EA3FC97DB283}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -514,8 +550,8 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="1371600" y="476250"/>
-          <a:ext cx="6162675" cy="6524625"/>
+          <a:off x="1371600" y="238125"/>
+          <a:ext cx="6162675" cy="6867525"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -538,8 +574,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{92E6985A-3403-4A0C-8082-6EDF4E263775}" name="テーブル2" displayName="テーブル2" ref="B3:D40" totalsRowShown="0" headerRowDxfId="4" dataDxfId="3">
-  <autoFilter ref="B3:D40" xr:uid="{07381EF2-8942-452E-8374-C1B98870814C}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{92E6985A-3403-4A0C-8082-6EDF4E263775}" name="テーブル2" displayName="テーブル2" ref="B3:D42" totalsRowShown="0" headerRowDxfId="4" dataDxfId="3">
+  <autoFilter ref="B3:D42" xr:uid="{07381EF2-8942-452E-8374-C1B98870814C}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
@@ -850,10 +886,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5EBE913D-48DB-461B-BB8B-C857C10F25E1}">
-  <dimension ref="B3:D40"/>
+  <dimension ref="B3:D42"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:D40"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3:D42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.4"/>
@@ -867,13 +903,13 @@
   <sheetData>
     <row r="3" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B3" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C3" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>63</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="4" spans="2:4" x14ac:dyDescent="0.4">
@@ -881,7 +917,7 @@
         <v>0</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>1</v>
@@ -892,7 +928,7 @@
         <v>2</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>3</v>
@@ -903,10 +939,10 @@
         <v>4</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="7" spans="2:4" x14ac:dyDescent="0.4">
@@ -917,7 +953,7 @@
         <v>6</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="8" spans="2:4" x14ac:dyDescent="0.4">
@@ -925,7 +961,7 @@
         <v>7</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>8</v>
@@ -936,7 +972,7 @@
         <v>9</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>10</v>
@@ -950,7 +986,7 @@
         <v>12</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="11" spans="2:4" x14ac:dyDescent="0.4">
@@ -958,10 +994,10 @@
         <v>13</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="12" spans="2:4" x14ac:dyDescent="0.4">
@@ -994,7 +1030,7 @@
         <v>6</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="15" spans="2:4" x14ac:dyDescent="0.4">
@@ -1005,7 +1041,7 @@
         <v>20</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="16" spans="2:4" x14ac:dyDescent="0.4">
@@ -1016,271 +1052,293 @@
         <v>6</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="17" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B17" s="1" t="s">
-        <v>22</v>
+        <v>90</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="18" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B18" s="1" t="s">
-        <v>23</v>
+        <v>87</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>6</v>
+        <v>88</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
     </row>
     <row r="19" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B19" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>67</v>
+        <v>6</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="20" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B20" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
     </row>
     <row r="21" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B21" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>27</v>
+        <v>86</v>
       </c>
     </row>
     <row r="22" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B22" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="23" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B23" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>85</v>
+        <v>28</v>
       </c>
     </row>
     <row r="24" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B24" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="25" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B25" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="26" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B26" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>34</v>
+        <v>69</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>35</v>
+        <v>86</v>
       </c>
     </row>
     <row r="27" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B27" s="1" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="C27" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D27" s="2" t="s">
         <v>34</v>
-      </c>
-      <c r="D27" s="2" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="28" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B28" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
     </row>
     <row r="29" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B29" s="1" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="30" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B30" s="1" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="31" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B31" s="1" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="32" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B32" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C32" s="1" t="s">
         <v>73</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="33" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B33" s="1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="34" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B34" s="1" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="35" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B35" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="36" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B36" s="1" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="37" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B37" s="1" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="38" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B38" s="1" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="39" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B39" s="1" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="40" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B40" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="41" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B41" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="D41" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="C40" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="D40" s="2" t="s">
-        <v>62</v>
+    </row>
+    <row r="42" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B42" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>92</v>
       </c>
     </row>
   </sheetData>
@@ -1297,7 +1355,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A91D1E52-F4BF-492F-8043-F3A0E538A5BA}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData/>
